--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_14_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_14_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2811993.101193714</v>
+        <v>-2814933.709335737</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12248387.38209607</v>
+        <v>12248387.38209606</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>151.6446593074378</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.28384097019984</v>
+        <v>13.28384097019987</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>113.4087292060836</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>23.04960785036494</v>
       </c>
       <c r="S8" t="n">
-        <v>151.6446593074419</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>151.6446593074378</v>
       </c>
       <c r="V8" t="n">
-        <v>151.6446593074419</v>
+        <v>90.3591213557149</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>151.6446593074378</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>151.6446593074419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>151.6446593074378</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>33.09037662280284</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>151.6188391852963</v>
+        <v>151.6188391852966</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>133.5944360401324</v>
       </c>
       <c r="U9" t="n">
-        <v>100.5040594173375</v>
+        <v>151.6446593074378</v>
       </c>
       <c r="V9" t="n">
-        <v>151.6446593074419</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>151.6446593074419</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>136.5739856407216</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>151.6446593074378</v>
       </c>
       <c r="U10" t="n">
-        <v>151.6446593074419</v>
+        <v>151.6446593074378</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>148.6392895847151</v>
+        <v>151.6446593074378</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>133.5686159179911</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.6446593074419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,19 +1376,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>346.2635828829804</v>
       </c>
       <c r="G11" t="n">
         <v>410.1644063769637</v>
       </c>
       <c r="H11" t="n">
-        <v>238.8047027916325</v>
+        <v>286.8518683469698</v>
       </c>
       <c r="I11" t="n">
-        <v>12.38037836605494</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>91.9303487751657</v>
+        <v>91.93034877516568</v>
       </c>
       <c r="T11" t="n">
         <v>200.6028050067863</v>
@@ -1467,7 +1467,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I12" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>80.41527379555133</v>
+        <v>80.41527379555131</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>73.65767465442971</v>
+        <v>73.6576746544297</v>
       </c>
       <c r="S13" t="n">
         <v>183.8488525946973</v>
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.1644063769637</v>
+        <v>374.4976191876822</v>
       </c>
       <c r="H14" t="n">
-        <v>238.8047027916325</v>
+        <v>286.8518683469698</v>
       </c>
       <c r="I14" t="n">
-        <v>12.38037836605491</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>81.97599399093703</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,10 +1774,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>80.41527379555131</v>
       </c>
       <c r="G16" t="n">
-        <v>165.6861009032421</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1856,10 +1856,10 @@
         <v>375.2658433894975</v>
       </c>
       <c r="G17" t="n">
-        <v>378.5542040247499</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H17" t="n">
-        <v>255.2416659947564</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295086</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T17" t="n">
         <v>168.9926026545724</v>
@@ -1941,7 +1941,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2011,16 +2011,16 @@
         <v>114.8237602943553</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G19" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H19" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442989</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453025</v>
+        <v>54.52629139453018</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S19" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T19" t="n">
         <v>186.4872700401421</v>
@@ -2065,7 +2065,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y19" t="n">
         <v>186.9744509998809</v>
@@ -2096,7 +2096,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H20" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T20" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3243840645695</v>
+        <v>219.324384064569</v>
       </c>
       <c r="V20" t="n">
         <v>296.142056117921</v>
@@ -2178,7 +2178,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I21" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2248,16 +2248,16 @@
         <v>114.8237602943553</v>
       </c>
       <c r="F22" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G22" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H22" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453025</v>
+        <v>54.52629139453018</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S22" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T22" t="n">
         <v>186.4872700401421</v>
@@ -2302,7 +2302,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X22" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y22" t="n">
         <v>186.9744509998809</v>
@@ -2321,7 +2321,7 @@
         <v>333.6626894187937</v>
       </c>
       <c r="D23" t="n">
-        <v>323.0728392684696</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E23" t="n">
         <v>350.3201677200479</v>
@@ -2333,7 +2333,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H23" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295086</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U23" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645699</v>
       </c>
       <c r="V23" t="n">
         <v>296.142056117921</v>
@@ -2415,7 +2415,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I24" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>114.8237602943553</v>
       </c>
       <c r="F25" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G25" t="n">
         <v>134.0758985510282</v>
@@ -2494,7 +2494,7 @@
         <v>110.1245053442998</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453016</v>
+        <v>54.52629139453018</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S25" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T25" t="n">
         <v>186.4872700401421</v>
@@ -2539,7 +2539,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X25" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y25" t="n">
         <v>186.9744509998809</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112681</v>
       </c>
       <c r="C26" t="n">
         <v>333.6626894187937</v>
@@ -2570,7 +2570,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H26" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295086</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T26" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645713</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V26" t="n">
         <v>296.142056117921</v>
@@ -2652,7 +2652,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I27" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>134.0758985510282</v>
       </c>
       <c r="H28" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453017</v>
+        <v>54.52629139453018</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221513</v>
       </c>
       <c r="S28" t="n">
         <v>152.2386502424834</v>
@@ -2767,7 +2767,7 @@
         <v>186.4872700401421</v>
       </c>
       <c r="U28" t="n">
-        <v>254.5831063612653</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V28" t="n">
         <v>220.5274409716141</v>
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D29" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E29" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F29" t="n">
         <v>375.2658433894975</v>
@@ -2843,10 +2843,10 @@
         <v>60.32014642295175</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645686</v>
+        <v>219.324384064569</v>
       </c>
       <c r="V29" t="n">
         <v>296.142056117921</v>
@@ -2858,7 +2858,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I30" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,10 +2953,10 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D31" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F31" t="n">
         <v>113.8108456707173</v>
@@ -2965,10 +2965,10 @@
         <v>134.0758985510282</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053443011</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139452952</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T31" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U31" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V31" t="n">
         <v>220.5274409716141</v>
@@ -3013,10 +3013,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="32">
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D32" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E32" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F32" t="n">
         <v>375.2658433894975</v>
@@ -3044,7 +3044,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H32" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295174</v>
       </c>
       <c r="T32" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U32" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V32" t="n">
         <v>296.142056117921</v>
@@ -3092,10 +3092,10 @@
         <v>317.6307663651991</v>
       </c>
       <c r="X32" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262555</v>
       </c>
       <c r="Y32" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I33" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3190,22 +3190,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D34" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F34" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G34" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H34" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139452983</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221558</v>
       </c>
       <c r="S34" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T34" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V34" t="n">
         <v>220.5274409716141</v>
@@ -3250,10 +3250,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X34" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y34" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112672</v>
       </c>
       <c r="C35" t="n">
         <v>333.6626894187937</v>
@@ -3281,7 +3281,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H35" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T35" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U35" t="n">
-        <v>219.3243840645699</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V35" t="n">
         <v>296.142056117921</v>
@@ -3363,7 +3363,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I36" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3427,22 +3427,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D37" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E37" t="n">
         <v>114.8237602943553</v>
       </c>
       <c r="F37" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G37" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H37" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453018</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S37" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424825</v>
       </c>
       <c r="T37" t="n">
         <v>186.4872700401421</v>
       </c>
       <c r="U37" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612657</v>
       </c>
       <c r="V37" t="n">
         <v>220.5274409716141</v>
@@ -3487,7 +3487,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X37" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y37" t="n">
         <v>186.9744509998809</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295086</v>
+        <v>60.32014642295174</v>
       </c>
       <c r="T38" t="n">
         <v>168.9926026545723</v>
       </c>
       <c r="U38" t="n">
-        <v>219.3243840645708</v>
+        <v>219.3243840645699</v>
       </c>
       <c r="V38" t="n">
         <v>296.142056117921</v>
@@ -3600,7 +3600,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I39" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C40" t="n">
         <v>135.6366187464139</v>
@@ -3679,7 +3679,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453009</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221574</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424833</v>
@@ -3718,10 +3718,10 @@
         <v>254.5831063612651</v>
       </c>
       <c r="V40" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W40" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X40" t="n">
         <v>194.0994530368232</v>
@@ -3755,7 +3755,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H41" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947573</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T41" t="n">
         <v>168.9926026545724</v>
@@ -3806,7 +3806,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.62773630384</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I42" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3901,7 +3901,7 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D43" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E43" t="n">
         <v>114.8237602943553</v>
@@ -3916,7 +3916,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453025</v>
+        <v>54.5262913945304</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S43" t="n">
         <v>152.2386502424833</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295086</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T44" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U44" t="n">
-        <v>219.3243840645708</v>
+        <v>219.3243840645686</v>
       </c>
       <c r="V44" t="n">
         <v>296.142056117921</v>
@@ -4141,7 +4141,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E46" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F46" t="n">
         <v>113.8108456707173</v>
@@ -4153,7 +4153,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S46" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T46" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U46" t="n">
         <v>254.5831063612653</v>
@@ -4201,7 +4201,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y46" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
   </sheetData>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>147.0493666011558</v>
+        <v>185.671518218685</v>
       </c>
       <c r="C8" t="n">
-        <v>147.0493666011558</v>
+        <v>185.671518218685</v>
       </c>
       <c r="D8" t="n">
-        <v>147.0493666011558</v>
+        <v>32.49509467581856</v>
       </c>
       <c r="E8" t="n">
-        <v>147.0493666011558</v>
+        <v>32.49509467581856</v>
       </c>
       <c r="F8" t="n">
-        <v>140.1038658519523</v>
+        <v>25.5495939266151</v>
       </c>
       <c r="G8" t="n">
-        <v>126.6858446699323</v>
+        <v>12.13157274459502</v>
       </c>
       <c r="H8" t="n">
-        <v>126.6858446699323</v>
+        <v>12.13157274459502</v>
       </c>
       <c r="I8" t="n">
-        <v>12.13157274459535</v>
+        <v>12.13157274459502</v>
       </c>
       <c r="J8" t="n">
-        <v>12.13157274459535</v>
+        <v>12.13157274459502</v>
       </c>
       <c r="K8" t="n">
-        <v>48.48571947408843</v>
+        <v>48.48571947408518</v>
       </c>
       <c r="L8" t="n">
-        <v>130.4880150035151</v>
+        <v>130.4880150035083</v>
       </c>
       <c r="M8" t="n">
-        <v>253.4008063749107</v>
+        <v>253.4008063748998</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9162635908955</v>
+        <v>382.9162635908805</v>
       </c>
       <c r="O8" t="n">
-        <v>491.8787759665229</v>
+        <v>491.8787759665041</v>
       </c>
       <c r="P8" t="n">
-        <v>550.3747584833463</v>
+        <v>550.3747584833243</v>
       </c>
       <c r="Q8" t="n">
-        <v>606.5786372297677</v>
+        <v>606.5786372297512</v>
       </c>
       <c r="R8" t="n">
-        <v>606.5786372297677</v>
+        <v>583.2962050576654</v>
       </c>
       <c r="S8" t="n">
-        <v>453.402213686897</v>
+        <v>583.2962050576654</v>
       </c>
       <c r="T8" t="n">
-        <v>453.402213686897</v>
+        <v>583.2962050576654</v>
       </c>
       <c r="U8" t="n">
-        <v>453.402213686897</v>
+        <v>430.1197815147989</v>
       </c>
       <c r="V8" t="n">
-        <v>300.2257901440264</v>
+        <v>338.8479417615515</v>
       </c>
       <c r="W8" t="n">
-        <v>300.2257901440264</v>
+        <v>185.671518218685</v>
       </c>
       <c r="X8" t="n">
-        <v>300.2257901440264</v>
+        <v>185.671518218685</v>
       </c>
       <c r="Y8" t="n">
-        <v>147.0493666011558</v>
+        <v>185.671518218685</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.13157274459535</v>
+        <v>165.3079962874615</v>
       </c>
       <c r="C9" t="n">
-        <v>12.13157274459535</v>
+        <v>12.13157274459502</v>
       </c>
       <c r="D9" t="n">
-        <v>12.13157274459535</v>
+        <v>12.13157274459502</v>
       </c>
       <c r="E9" t="n">
-        <v>12.13157274459535</v>
+        <v>12.13157274459502</v>
       </c>
       <c r="F9" t="n">
-        <v>12.13157274459535</v>
+        <v>12.13157274459502</v>
       </c>
       <c r="G9" t="n">
-        <v>12.13157274459535</v>
+        <v>12.13157274459502</v>
       </c>
       <c r="H9" t="n">
-        <v>12.13157274459535</v>
+        <v>12.13157274459502</v>
       </c>
       <c r="I9" t="n">
-        <v>12.13157274459535</v>
+        <v>12.13157274459502</v>
       </c>
       <c r="J9" t="n">
-        <v>12.13157274459535</v>
+        <v>12.13157274459502</v>
       </c>
       <c r="K9" t="n">
-        <v>48.35365398347298</v>
+        <v>48.35365398347062</v>
       </c>
       <c r="L9" t="n">
-        <v>143.3812534467631</v>
+        <v>143.3812534467581</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6308480303878</v>
+        <v>273.6308480303799</v>
       </c>
       <c r="N9" t="n">
-        <v>421.7364067286238</v>
+        <v>421.7364067286127</v>
       </c>
       <c r="O9" t="n">
-        <v>535.0042629693016</v>
+        <v>535.0042629692874</v>
       </c>
       <c r="P9" t="n">
-        <v>606.5786372297677</v>
+        <v>606.5786372297512</v>
       </c>
       <c r="Q9" t="n">
-        <v>606.5786372297677</v>
+        <v>606.5786372297512</v>
       </c>
       <c r="R9" t="n">
-        <v>573.1540143784516</v>
+        <v>606.5786372297512</v>
       </c>
       <c r="S9" t="n">
-        <v>420.0036717670412</v>
+        <v>453.4282946183405</v>
       </c>
       <c r="T9" t="n">
-        <v>420.0036717670412</v>
+        <v>318.484419830328</v>
       </c>
       <c r="U9" t="n">
-        <v>318.4844198303366</v>
+        <v>165.3079962874615</v>
       </c>
       <c r="V9" t="n">
-        <v>165.307996287466</v>
+        <v>165.3079962874615</v>
       </c>
       <c r="W9" t="n">
-        <v>165.307996287466</v>
+        <v>165.3079962874615</v>
       </c>
       <c r="X9" t="n">
-        <v>12.13157274459535</v>
+        <v>165.3079962874615</v>
       </c>
       <c r="Y9" t="n">
-        <v>12.13157274459535</v>
+        <v>165.3079962874615</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12.13157274459535</v>
+        <v>12.13157274459502</v>
       </c>
       <c r="C10" t="n">
-        <v>12.13157274459535</v>
+        <v>12.13157274459502</v>
       </c>
       <c r="D10" t="n">
-        <v>12.13157274459535</v>
+        <v>12.13157274459502</v>
       </c>
       <c r="E10" t="n">
-        <v>12.13157274459535</v>
+        <v>12.13157274459502</v>
       </c>
       <c r="F10" t="n">
-        <v>12.13157274459535</v>
+        <v>12.13157274459502</v>
       </c>
       <c r="G10" t="n">
-        <v>12.13157274459535</v>
+        <v>12.13157274459502</v>
       </c>
       <c r="H10" t="n">
-        <v>12.13157274459535</v>
+        <v>12.13157274459502</v>
       </c>
       <c r="I10" t="n">
-        <v>12.13157274459535</v>
+        <v>12.13157274459502</v>
       </c>
       <c r="J10" t="n">
-        <v>12.13157274459535</v>
+        <v>12.13157274459502</v>
       </c>
       <c r="K10" t="n">
-        <v>12.13157274459535</v>
+        <v>12.13157274459502</v>
       </c>
       <c r="L10" t="n">
-        <v>50.45440734355014</v>
+        <v>50.45440734354719</v>
       </c>
       <c r="M10" t="n">
-        <v>200.5826200579176</v>
+        <v>200.5826200579106</v>
       </c>
       <c r="N10" t="n">
-        <v>350.7108327722851</v>
+        <v>350.710832772274</v>
       </c>
       <c r="O10" t="n">
-        <v>500.8390454866526</v>
+        <v>500.8390454866374</v>
       </c>
       <c r="P10" t="n">
-        <v>606.5786372297677</v>
+        <v>606.5786372297512</v>
       </c>
       <c r="Q10" t="n">
-        <v>606.5786372297677</v>
+        <v>606.5786372297512</v>
       </c>
       <c r="R10" t="n">
-        <v>468.6251163805539</v>
+        <v>606.5786372297512</v>
       </c>
       <c r="S10" t="n">
-        <v>468.6251163805539</v>
+        <v>606.5786372297512</v>
       </c>
       <c r="T10" t="n">
-        <v>468.6251163805539</v>
+        <v>453.4022136868847</v>
       </c>
       <c r="U10" t="n">
-        <v>315.4486928376833</v>
+        <v>300.2257901440182</v>
       </c>
       <c r="V10" t="n">
-        <v>315.4486928376833</v>
+        <v>300.2257901440182</v>
       </c>
       <c r="W10" t="n">
-        <v>165.307996287466</v>
+        <v>147.0493666011517</v>
       </c>
       <c r="X10" t="n">
-        <v>165.307996287466</v>
+        <v>12.13157274459502</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.13157274459535</v>
+        <v>12.13157274459502</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1866.026662509059</v>
+        <v>1866.02666250906</v>
       </c>
       <c r="C11" t="n">
         <v>1497.064145568648</v>
       </c>
       <c r="D11" t="n">
-        <v>1138.798446961897</v>
+        <v>1138.798446961898</v>
       </c>
       <c r="E11" t="n">
-        <v>753.0101943636528</v>
+        <v>1138.798446961898</v>
       </c>
       <c r="F11" t="n">
-        <v>753.0101943636528</v>
+        <v>789.0372521306047</v>
       </c>
       <c r="G11" t="n">
-        <v>338.7027131748005</v>
+        <v>374.7297709417525</v>
       </c>
       <c r="H11" t="n">
-        <v>97.48584166810105</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I11" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J11" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K11" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L11" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M11" t="n">
         <v>2001.213713746739</v>
       </c>
       <c r="N11" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O11" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233289</v>
       </c>
       <c r="P11" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R11" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S11" t="n">
         <v>4156.16151059908</v>
       </c>
       <c r="T11" t="n">
-        <v>3953.532414632629</v>
+        <v>3953.53241463263</v>
       </c>
       <c r="U11" t="n">
         <v>3700.063135423758</v>
       </c>
       <c r="V11" t="n">
-        <v>3369.000248080187</v>
+        <v>3369.000248080188</v>
       </c>
       <c r="W11" t="n">
-        <v>3016.231592810072</v>
+        <v>3016.231592810073</v>
       </c>
       <c r="X11" t="n">
-        <v>2642.765834548993</v>
+        <v>2642.765834548994</v>
       </c>
       <c r="Y11" t="n">
-        <v>2252.626502573181</v>
+        <v>2252.626502573182</v>
       </c>
     </row>
     <row r="12">
@@ -5115,19 +5115,19 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I12" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J12" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="K12" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="L12" t="n">
-        <v>301.7509472448909</v>
+        <v>301.7509472448904</v>
       </c>
       <c r="M12" t="n">
-        <v>850.66941185518</v>
+        <v>850.6694118551798</v>
       </c>
       <c r="N12" t="n">
         <v>1428.524759781582</v>
@@ -5179,25 +5179,25 @@
         <v>166.2079582635519</v>
       </c>
       <c r="D13" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="E13" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="F13" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="G13" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="H13" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I13" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J13" t="n">
-        <v>153.8801783755867</v>
+        <v>153.8801783755868</v>
       </c>
       <c r="K13" t="n">
         <v>396.9405013869778</v>
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1866.026662509059</v>
+        <v>1866.02666250906</v>
       </c>
       <c r="C14" t="n">
         <v>1497.064145568648</v>
       </c>
       <c r="D14" t="n">
-        <v>1138.798446961897</v>
+        <v>1138.798446961898</v>
       </c>
       <c r="E14" t="n">
-        <v>753.0101943636528</v>
+        <v>753.0101943636537</v>
       </c>
       <c r="F14" t="n">
-        <v>753.0101943636528</v>
+        <v>753.0101943636537</v>
       </c>
       <c r="G14" t="n">
-        <v>338.7027131748005</v>
+        <v>374.7297709417525</v>
       </c>
       <c r="H14" t="n">
-        <v>97.48584166810102</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I14" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J14" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076838</v>
       </c>
       <c r="K14" t="n">
         <v>766.6831886951452</v>
       </c>
       <c r="L14" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M14" t="n">
         <v>2001.213713746739</v>
@@ -5297,31 +5297,31 @@
         <v>3813.656640612705</v>
       </c>
       <c r="Q14" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R14" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S14" t="n">
         <v>4156.16151059908</v>
       </c>
       <c r="T14" t="n">
-        <v>3953.532414632629</v>
+        <v>3953.53241463263</v>
       </c>
       <c r="U14" t="n">
         <v>3700.063135423758</v>
       </c>
       <c r="V14" t="n">
-        <v>3369.000248080187</v>
+        <v>3369.000248080188</v>
       </c>
       <c r="W14" t="n">
-        <v>3016.231592810072</v>
+        <v>3016.231592810073</v>
       </c>
       <c r="X14" t="n">
-        <v>2642.765834548993</v>
+        <v>2642.765834548994</v>
       </c>
       <c r="Y14" t="n">
-        <v>2252.626502573181</v>
+        <v>2252.626502573182</v>
       </c>
     </row>
     <row r="15">
@@ -5349,16 +5349,16 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H15" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I15" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J15" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="K15" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="L15" t="n">
         <v>301.7509472448904</v>
@@ -5413,25 +5413,25 @@
         <v>335.1441411914589</v>
       </c>
       <c r="C16" t="n">
-        <v>252.340106857179</v>
+        <v>166.2079582635519</v>
       </c>
       <c r="D16" t="n">
-        <v>252.340106857179</v>
+        <v>166.2079582635519</v>
       </c>
       <c r="E16" t="n">
-        <v>252.340106857179</v>
+        <v>166.2079582635519</v>
       </c>
       <c r="F16" t="n">
-        <v>252.340106857179</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="G16" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="H16" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I16" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J16" t="n">
         <v>153.8801783755868</v>
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112808</v>
       </c>
       <c r="C17" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497865</v>
       </c>
       <c r="D17" t="n">
         <v>1458.093420216583</v>
       </c>
       <c r="E17" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943808</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796681</v>
+        <v>725.1782574796689</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162844</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J17" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076838</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L17" t="n">
         <v>1336.032957050963</v>
@@ -5525,40 +5525,40 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233289</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S17" t="n">
         <v>4188.091007924549</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283567</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400164</v>
       </c>
       <c r="V17" t="n">
         <v>3496.718237382061</v>
       </c>
       <c r="W17" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437416</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501805</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.132983851462</v>
       </c>
     </row>
     <row r="18">
@@ -5589,19 +5589,19 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J18" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="K18" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="L18" t="n">
-        <v>301.7509472448909</v>
+        <v>301.7509472448904</v>
       </c>
       <c r="M18" t="n">
-        <v>850.66941185518</v>
+        <v>850.6694118551798</v>
       </c>
       <c r="N18" t="n">
         <v>1428.524759781582</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477721</v>
+        <v>735.8557341477714</v>
       </c>
       <c r="D19" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609042</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039796</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315378</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749436</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897933</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J19" t="n">
         <v>185.1742787042785</v>
@@ -5677,7 +5677,7 @@
         <v>459.5287020443612</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M19" t="n">
         <v>1285.552079040893</v>
@@ -5701,19 +5701,19 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y19" t="n">
         <v>1022.581387254981</v>
@@ -5735,10 +5735,10 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796678</v>
       </c>
       <c r="G20" t="n">
         <v>342.8002736162839</v>
@@ -5750,10 +5750,10 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076838</v>
       </c>
       <c r="K20" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L20" t="n">
         <v>1336.032957050963</v>
@@ -5762,7 +5762,7 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O20" t="n">
         <v>3311.067850233288</v>
@@ -5783,19 +5783,19 @@
         <v>4017.391409283566</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W20" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="21">
@@ -5823,7 +5823,7 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H21" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I21" t="n">
         <v>84.98040897511625</v>
@@ -5835,10 +5835,10 @@
         <v>84.98040897511625</v>
       </c>
       <c r="L21" t="n">
-        <v>301.7509472448909</v>
+        <v>538.7790385694437</v>
       </c>
       <c r="M21" t="n">
-        <v>850.66941185518</v>
+        <v>850.6694118551798</v>
       </c>
       <c r="N21" t="n">
         <v>1428.524759781582</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502106</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477721</v>
+        <v>735.8557341477723</v>
       </c>
       <c r="D22" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609051</v>
       </c>
       <c r="E22" t="n">
         <v>501.6849958039805</v>
@@ -5902,7 +5902,7 @@
         <v>251.2943450749445</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897933</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I22" t="n">
         <v>84.98040897511625</v>
@@ -5914,7 +5914,7 @@
         <v>459.5287020443612</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M22" t="n">
         <v>1285.552079040893</v>
@@ -5929,13 +5929,13 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q22" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R22" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S22" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T22" t="n">
         <v>2144.901839127669</v>
@@ -5953,7 +5953,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y22" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5969,28 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D23" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E23" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796675</v>
+        <v>725.178257479668</v>
       </c>
       <c r="G23" t="n">
         <v>342.8002736162839</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J23" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L23" t="n">
         <v>1336.032957050964</v>
@@ -6005,28 +6005,28 @@
         <v>3311.067850233288</v>
       </c>
       <c r="P23" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.09100792455</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283568</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400164</v>
       </c>
       <c r="V23" t="n">
         <v>3496.718237382061</v>
       </c>
       <c r="W23" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437416</v>
       </c>
       <c r="X23" t="n">
         <v>2834.342818501804</v>
@@ -6063,19 +6063,19 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J24" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="K24" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="L24" t="n">
-        <v>538.7790385694437</v>
+        <v>301.7509472448904</v>
       </c>
       <c r="M24" t="n">
-        <v>850.66941185518</v>
+        <v>850.6694118551798</v>
       </c>
       <c r="N24" t="n">
         <v>1428.524759781582</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502106</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477721</v>
+        <v>735.8557341477723</v>
       </c>
       <c r="D25" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609051</v>
       </c>
       <c r="E25" t="n">
         <v>501.6849958039805</v>
@@ -6142,7 +6142,7 @@
         <v>140.0574709897932</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J25" t="n">
         <v>185.1742787042785</v>
@@ -6151,13 +6151,13 @@
         <v>459.5287020443612</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902794</v>
       </c>
       <c r="M25" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N25" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O25" t="n">
         <v>2087.878830313936</v>
@@ -6166,13 +6166,13 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T25" t="n">
         <v>2144.901839127669</v>
@@ -6190,7 +6190,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="26">
@@ -6224,13 +6224,13 @@
         <v>84.98040897511626</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076848</v>
+        <v>337.4933016076843</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951463</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L26" t="n">
-        <v>1336.032957050965</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M26" t="n">
         <v>2001.21371374674</v>
@@ -6239,7 +6239,7 @@
         <v>2681.771598889757</v>
       </c>
       <c r="O26" t="n">
-        <v>3311.067850233289</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P26" t="n">
         <v>3813.656640612705</v>
@@ -6251,25 +6251,25 @@
         <v>4249.020448755813</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.09100792455</v>
+        <v>4188.091007924549</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283568</v>
+        <v>4017.391409283567</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400164</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W26" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437416</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501805</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851462</v>
       </c>
     </row>
     <row r="27">
@@ -6297,7 +6297,7 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H27" t="n">
-        <v>89.89576342177182</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I27" t="n">
         <v>84.98040897511626</v>
@@ -6309,10 +6309,10 @@
         <v>84.98040897511626</v>
       </c>
       <c r="L27" t="n">
-        <v>301.7509472448909</v>
+        <v>301.7509472448904</v>
       </c>
       <c r="M27" t="n">
-        <v>850.66941185518</v>
+        <v>850.6694118551798</v>
       </c>
       <c r="N27" t="n">
         <v>1428.524759781582</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502105</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477722</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D28" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F28" t="n">
         <v>386.7245456315387</v>
@@ -6388,28 +6388,28 @@
         <v>459.5287020443612</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M28" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N28" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P28" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q28" t="n">
         <v>2529.521427597205</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T28" t="n">
         <v>2144.901839127669</v>
@@ -6418,7 +6418,7 @@
         <v>1887.747186237502</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W28" t="n">
         <v>1407.504522645592</v>
@@ -6427,7 +6427,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="29">
@@ -6446,7 +6446,7 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F29" t="n">
         <v>725.1782574796675</v>
@@ -6455,25 +6455,25 @@
         <v>342.8002736162838</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K29" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L29" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O29" t="n">
         <v>3311.067850233288</v>
@@ -6482,28 +6482,28 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W29" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y29" t="n">
         <v>2476.13298385146</v>
@@ -6537,19 +6537,19 @@
         <v>89.89576342177176</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J30" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="K30" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="L30" t="n">
-        <v>301.7509472448909</v>
+        <v>301.7509472448904</v>
       </c>
       <c r="M30" t="n">
-        <v>850.66941185518</v>
+        <v>850.6694118551798</v>
       </c>
       <c r="N30" t="n">
         <v>1428.524759781582</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502113</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477731</v>
+        <v>735.8557341477714</v>
       </c>
       <c r="D31" t="n">
-        <v>617.668592060906</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039816</v>
+        <v>501.6849958039798</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315399</v>
+        <v>386.724545631538</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749457</v>
+        <v>251.2943450749438</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897925</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J31" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443613</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L31" t="n">
         <v>857.3827676902788</v>
@@ -6640,31 +6640,31 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073044</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="32">
@@ -6686,58 +6686,58 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796672</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162835</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511584</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K32" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O32" t="n">
         <v>3311.067850233288</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X32" t="n">
         <v>2834.342818501803</v>
@@ -6774,19 +6774,19 @@
         <v>89.89576342177176</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J33" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="K33" t="n">
-        <v>84.98040897511622</v>
+        <v>301.7509472448904</v>
       </c>
       <c r="L33" t="n">
-        <v>538.7790385694436</v>
+        <v>301.7509472448904</v>
       </c>
       <c r="M33" t="n">
-        <v>850.66941185518</v>
+        <v>850.6694118551798</v>
       </c>
       <c r="N33" t="n">
         <v>1428.524759781582</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502101</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C34" t="n">
         <v>735.8557341477717</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E34" t="n">
-        <v>501.68499580398</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749441</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897928</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M34" t="n">
         <v>1285.552079040893</v>
@@ -6892,10 +6892,10 @@
         <v>1887.747186237502</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X34" t="n">
         <v>1211.444469073043</v>
@@ -6923,7 +6923,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796669</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G35" t="n">
         <v>342.8002736162839</v>
@@ -6938,7 +6938,7 @@
         <v>337.4933016076837</v>
       </c>
       <c r="K35" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L35" t="n">
         <v>1336.032957050963</v>
@@ -6947,7 +6947,7 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O35" t="n">
         <v>3311.067850233288</v>
@@ -6956,7 +6956,7 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R35" t="n">
         <v>4249.020448755812</v>
@@ -6968,19 +6968,19 @@
         <v>4017.391409283566</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="36">
@@ -7008,7 +7008,7 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H36" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I36" t="n">
         <v>84.98040897511625</v>
@@ -7020,10 +7020,10 @@
         <v>84.98040897511625</v>
       </c>
       <c r="L36" t="n">
-        <v>301.7509472448909</v>
+        <v>538.7790385694437</v>
       </c>
       <c r="M36" t="n">
-        <v>850.66941185518</v>
+        <v>1087.697503179733</v>
       </c>
       <c r="N36" t="n">
         <v>1428.524759781582</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502105</v>
+        <v>872.8624197502104</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477722</v>
+        <v>735.8557341477721</v>
       </c>
       <c r="D37" t="n">
         <v>617.668592060905</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H37" t="n">
         <v>140.0574709897932</v>
@@ -7093,37 +7093,37 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042801</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443629</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902804</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M37" t="n">
-        <v>1285.552079040895</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N37" t="n">
-        <v>1709.719201354975</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313937</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.45563102869</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S37" t="n">
         <v>2333.272818966197</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U37" t="n">
         <v>1887.747186237502</v>
@@ -7138,7 +7138,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y37" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="38">
@@ -7157,7 +7157,7 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E38" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F38" t="n">
         <v>725.1782574796675</v>
@@ -7166,16 +7166,16 @@
         <v>342.8002736162838</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I38" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K38" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L38" t="n">
         <v>1336.032957050963</v>
@@ -7184,7 +7184,7 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O38" t="n">
         <v>3311.067850233288</v>
@@ -7196,7 +7196,7 @@
         <v>4142.907144767229</v>
       </c>
       <c r="R38" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S38" t="n">
         <v>4188.091007924549</v>
@@ -7205,19 +7205,19 @@
         <v>4017.391409283567</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W38" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="39">
@@ -7248,19 +7248,19 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I39" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J39" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="K39" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="L39" t="n">
-        <v>301.7509472448909</v>
+        <v>538.7790385694437</v>
       </c>
       <c r="M39" t="n">
-        <v>850.66941185518</v>
+        <v>850.6694118551798</v>
       </c>
       <c r="N39" t="n">
         <v>1428.524759781582</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H40" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I40" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J40" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902778</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N40" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O40" t="n">
         <v>2087.878830313935</v>
@@ -7351,13 +7351,13 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T40" t="n">
         <v>2144.901839127668</v>
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112808</v>
       </c>
       <c r="C41" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497865</v>
       </c>
       <c r="D41" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216584</v>
       </c>
       <c r="E41" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943808</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796675</v>
+        <v>725.178257479669</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162853</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076843</v>
       </c>
       <c r="K41" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L41" t="n">
         <v>1336.032957050963</v>
@@ -7421,40 +7421,40 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233289</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924549</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283567</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400164</v>
       </c>
       <c r="V41" t="n">
         <v>3496.718237382061</v>
       </c>
       <c r="W41" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437416</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501805</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851462</v>
       </c>
     </row>
     <row r="42">
@@ -7485,19 +7485,19 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J42" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="K42" t="n">
-        <v>301.7509472448909</v>
+        <v>388.0214583249808</v>
       </c>
       <c r="L42" t="n">
-        <v>301.7509472448909</v>
+        <v>841.8200879193082</v>
       </c>
       <c r="M42" t="n">
-        <v>850.66941185518</v>
+        <v>850.6694118551798</v>
       </c>
       <c r="N42" t="n">
         <v>1428.524759781582</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502105</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477721</v>
+        <v>735.8557341477722</v>
       </c>
       <c r="D43" t="n">
         <v>617.668592060905</v>
@@ -7558,25 +7558,25 @@
         <v>386.7245456315387</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749447</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897933</v>
+        <v>140.0574709897934</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M43" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N43" t="n">
         <v>1709.719201354973</v>
@@ -7588,13 +7588,13 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q43" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T43" t="n">
         <v>2144.901839127669</v>
@@ -7612,7 +7612,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y43" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="44">
@@ -7634,19 +7634,19 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G44" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076838</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K44" t="n">
         <v>766.6831886951452</v>
@@ -7655,28 +7655,28 @@
         <v>1336.032957050963</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R44" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924549</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283567</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U44" t="n">
         <v>3795.851627400162</v>
@@ -7719,16 +7719,16 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H45" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177173</v>
       </c>
       <c r="I45" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J45" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="K45" t="n">
-        <v>84.98040897511625</v>
+        <v>301.7509472448904</v>
       </c>
       <c r="L45" t="n">
         <v>301.7509472448904</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C46" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H46" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J46" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443607</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M46" t="n">
         <v>1285.552079040893</v>
@@ -7846,7 +7846,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y46" t="n">
         <v>1022.581387254981</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>9.694583895991741</v>
+        <v>9.694583895993702</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>61.05917030093254</v>
+        <v>61.05917030094066</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>24.78195397308875</v>
+        <v>24.78195397308991</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.094568381834506</v>
+        <v>2.094568381836069</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8611,19 +8611,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>23.7981337645904</v>
+        <v>23.79813376459161</v>
       </c>
       <c r="L10" t="n">
-        <v>38.95547527944931</v>
+        <v>38.95547527944822</v>
       </c>
       <c r="M10" t="n">
-        <v>148.6123532603905</v>
+        <v>148.612353260388</v>
       </c>
       <c r="N10" t="n">
-        <v>140.7475598661592</v>
+        <v>140.7475598661566</v>
       </c>
       <c r="O10" t="n">
-        <v>162.0976958607218</v>
+        <v>162.0976958607192</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -22550,13 +22550,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>289.8182395740201</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>14.3588981658848</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>187.5123304152058</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.9641928127885</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2701457598965</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>368.6535088283338</v>
       </c>
     </row>
     <row r="3">
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22714,13 +22714,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>158.4629941912556</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2959362379867</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22796,7 +22796,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.25430980652214</v>
+        <v>14.25430980652213</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>60.61246285873108</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>48.04716555533739</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>68.20019922266103</v>
+        <v>68.20019922266104</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23434,7 +23434,7 @@
         <v>141.7347076965137</v>
       </c>
       <c r="I13" t="n">
-        <v>86.13649374674407</v>
+        <v>86.13649374674405</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>35.66678718928154</v>
       </c>
       <c r="H14" t="n">
-        <v>48.0471655553373</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>85.27082710769081</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,10 +23662,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>65.00577422737993</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.6861009032421</v>
       </c>
       <c r="H16" t="n">
         <v>141.7347076965137</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>8.810729923425242e-13</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1238997.801108046</v>
+        <v>1238997.801108045</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>23690.54434158194</v>
       </c>
       <c r="D3" t="n">
-        <v>253847.2511457109</v>
+        <v>253847.2511457047</v>
       </c>
       <c r="E3" t="n">
-        <v>895296.3215397429</v>
+        <v>895296.3215397489</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>25288.16188177116</v>
+        <v>25288.1618817711</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>63668.06035055092</v>
+        <v>63668.06035054987</v>
       </c>
       <c r="M3" t="n">
-        <v>226927.7672998841</v>
+        <v>226927.7672998851</v>
       </c>
       <c r="N3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>292122.6764044799</v>
+        <v>292122.6764044798</v>
       </c>
       <c r="C4" t="n">
         <v>360207.2495555316</v>
       </c>
       <c r="D4" t="n">
-        <v>287483.1975335269</v>
+        <v>287483.1975335287</v>
       </c>
       <c r="E4" t="n">
         <v>9279.934068777682</v>
@@ -26430,34 +26430,34 @@
         <v>9279.934068777682</v>
       </c>
       <c r="G4" t="n">
-        <v>40349.81915099769</v>
+        <v>40349.81915099767</v>
       </c>
       <c r="H4" t="n">
         <v>40349.81915099767</v>
       </c>
       <c r="I4" t="n">
-        <v>40349.81915099767</v>
+        <v>40349.81915099768</v>
       </c>
       <c r="J4" t="n">
+        <v>40349.8191509976</v>
+      </c>
+      <c r="K4" t="n">
+        <v>40349.81915099769</v>
+      </c>
+      <c r="L4" t="n">
+        <v>40349.81915099769</v>
+      </c>
+      <c r="M4" t="n">
         <v>40349.81915099768</v>
       </c>
-      <c r="K4" t="n">
-        <v>40349.81915099773</v>
-      </c>
-      <c r="L4" t="n">
-        <v>40349.81915099768</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>40349.8191509977</v>
       </c>
-      <c r="N4" t="n">
-        <v>40349.81915099776</v>
-      </c>
       <c r="O4" t="n">
-        <v>40349.81915099768</v>
+        <v>40349.81915099762</v>
       </c>
       <c r="P4" t="n">
-        <v>40349.8191509977</v>
+        <v>40349.81915099772</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26473,43 @@
         <v>39312.96135688073</v>
       </c>
       <c r="D5" t="n">
-        <v>53795.56652493986</v>
+        <v>53795.56652493948</v>
       </c>
       <c r="E5" t="n">
-        <v>92448.99600060702</v>
+        <v>92448.99600060703</v>
       </c>
       <c r="F5" t="n">
-        <v>92448.99600060702</v>
+        <v>92448.99600060703</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215531</v>
       </c>
       <c r="H5" t="n">
         <v>95106.4341021553</v>
       </c>
       <c r="I5" t="n">
+        <v>95106.43410215531</v>
+      </c>
+      <c r="J5" t="n">
+        <v>95106.43410215531</v>
+      </c>
+      <c r="K5" t="n">
         <v>95106.4341021553</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>95106.4341021553</v>
-      </c>
-      <c r="K5" t="n">
-        <v>95106.43410215528</v>
-      </c>
-      <c r="L5" t="n">
-        <v>95106.43410215527</v>
       </c>
       <c r="M5" t="n">
         <v>95106.4341021553</v>
       </c>
       <c r="N5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215531</v>
       </c>
       <c r="O5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215531</v>
       </c>
       <c r="P5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
     </row>
     <row r="6">
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-557105.5781143303</v>
+        <v>-557433.1287277784</v>
       </c>
       <c r="C6" t="n">
-        <v>-423210.7552539943</v>
+        <v>-423214.9601947484</v>
       </c>
       <c r="D6" t="n">
-        <v>-595126.0152041777</v>
+        <v>-595126.0152041729</v>
       </c>
       <c r="E6" t="n">
-        <v>-997025.2516091276</v>
+        <v>-997160.9980789161</v>
       </c>
       <c r="F6" t="n">
-        <v>-101728.9300693847</v>
+        <v>-101864.6765391672</v>
       </c>
       <c r="G6" t="n">
         <v>-160744.4151349241</v>
@@ -26543,25 +26543,25 @@
         <v>-135456.253253153</v>
       </c>
       <c r="J6" t="n">
+        <v>-135456.2532531529</v>
+      </c>
+      <c r="K6" t="n">
         <v>-135456.253253153</v>
       </c>
-      <c r="K6" t="n">
-        <v>-135456.2532531529</v>
-      </c>
       <c r="L6" t="n">
-        <v>-199124.3136037039</v>
+        <v>-199124.3136037029</v>
       </c>
       <c r="M6" t="n">
-        <v>-362384.0205530371</v>
+        <v>-362384.0205530381</v>
       </c>
       <c r="N6" t="n">
-        <v>-135456.2532531531</v>
+        <v>-135456.253253153</v>
       </c>
       <c r="O6" t="n">
         <v>-135456.2532531529</v>
       </c>
       <c r="P6" t="n">
-        <v>-135456.253253153</v>
+        <v>-135456.2532531529</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>31.61020235221388</v>
+      </c>
+      <c r="H2" t="n">
+        <v>31.61020235221388</v>
+      </c>
+      <c r="I2" t="n">
+        <v>31.61020235221388</v>
+      </c>
+      <c r="J2" t="n">
+        <v>31.61020235221388</v>
+      </c>
+      <c r="K2" t="n">
+        <v>31.6102023522139</v>
+      </c>
+      <c r="L2" t="n">
+        <v>31.61020235221394</v>
+      </c>
+      <c r="M2" t="n">
         <v>31.61020235221391</v>
       </c>
-      <c r="H2" t="n">
-        <v>31.61020235221391</v>
-      </c>
-      <c r="I2" t="n">
-        <v>31.61020235221391</v>
-      </c>
-      <c r="J2" t="n">
-        <v>31.6102023522139</v>
-      </c>
-      <c r="K2" t="n">
-        <v>31.61020235221395</v>
-      </c>
-      <c r="L2" t="n">
-        <v>31.6102023522139</v>
-      </c>
-      <c r="M2" t="n">
-        <v>31.6102023522139</v>
-      </c>
       <c r="N2" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O2" t="n">
         <v>31.61020235221391</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>260.7963925174648</v>
       </c>
       <c r="D3" t="n">
-        <v>502.2005155526327</v>
+        <v>502.2005155526269</v>
       </c>
       <c r="E3" t="n">
         <v>1278.159870620123</v>
@@ -26793,7 +26793,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>151.6446593074419</v>
+        <v>151.6446593074378</v>
       </c>
       <c r="E4" t="n">
         <v>1062.255112188953</v>
@@ -26917,10 +26917,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-4.973799150320701e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26941,10 +26941,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>-5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>26.01635439147063</v>
       </c>
       <c r="D3" t="n">
-        <v>241.4041230351679</v>
+        <v>241.4041230351621</v>
       </c>
       <c r="E3" t="n">
-        <v>775.9593550674904</v>
+        <v>775.9593550674963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>151.6446593074419</v>
+        <v>151.6446593074378</v>
       </c>
       <c r="E4" t="n">
-        <v>910.6104528815112</v>
+        <v>910.6104528815155</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>151.6446593074419</v>
+        <v>151.6446593074378</v>
       </c>
       <c r="M4" t="n">
-        <v>910.6104528815112</v>
+        <v>910.6104528815152</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>151.6446593074419</v>
+        <v>151.6446593074378</v>
       </c>
       <c r="M4" t="n">
-        <v>910.6104528815112</v>
+        <v>910.6104528815155</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>117.0578061676914</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27427,25 +27427,25 @@
         <v>90.58066941881005</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>187.5123304152058</v>
       </c>
       <c r="T2" t="n">
-        <v>218.9641928127885</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2701457598965</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>17.58442982771982</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,13 +27546,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.5676055192152</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>158.4629941912556</v>
       </c>
       <c r="I4" t="n">
         <v>142.7184689252781</v>
@@ -27591,7 +27591,7 @@
         <v>226.1366284787861</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2959362379867</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27856,7 +27856,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>203.0383823132452</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>318.7987778749495</v>
+        <v>318.7987778749497</v>
       </c>
       <c r="I8" t="n">
-        <v>19.23365131570776</v>
+        <v>132.6423805217922</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>23.04960785036349</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>11.3698052610924</v>
+        <v>163.0144645685348</v>
       </c>
       <c r="T8" t="n">
-        <v>214.2581299386775</v>
+        <v>214.2581299386776</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1841411842417</v>
+        <v>99.53948187680388</v>
       </c>
       <c r="V8" t="n">
-        <v>176.107599162693</v>
+        <v>237.39313711442</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>197.5963094099752</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>234.5932793486117</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27932,7 +27932,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>21.06383968087795</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27947,10 +27947,10 @@
         <v>136.2633122807012</v>
       </c>
       <c r="H9" t="n">
-        <v>101.8029391869974</v>
+        <v>101.8029391869975</v>
       </c>
       <c r="I9" t="n">
-        <v>52.20536825624369</v>
+        <v>52.20536825624411</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,25 +27977,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>33.0903766228036</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>195.8107449797945</v>
+        <v>62.21630893966218</v>
       </c>
       <c r="U9" t="n">
-        <v>125.3662565529459</v>
+        <v>74.22565666284562</v>
       </c>
       <c r="V9" t="n">
-        <v>81.15592784198336</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>54.12832589603556</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28026,13 +28026,13 @@
         <v>167.0853718713966</v>
       </c>
       <c r="H10" t="n">
-        <v>154.1754986679236</v>
+        <v>154.1754986679237</v>
       </c>
       <c r="I10" t="n">
-        <v>128.2163879526991</v>
+        <v>128.2163879526994</v>
       </c>
       <c r="J10" t="n">
-        <v>29.33273078138058</v>
+        <v>29.33273078138131</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.32976540324685</v>
+        <v>10.32976540324772</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>136.5739856407221</v>
       </c>
       <c r="S10" t="n">
-        <v>208.2343293760805</v>
+        <v>208.2343293760807</v>
       </c>
       <c r="T10" t="n">
-        <v>224.0761756199252</v>
+        <v>72.43151631248739</v>
       </c>
       <c r="U10" t="n">
-        <v>134.6249732770274</v>
+        <v>134.6249732770315</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>137.8837087518759</v>
+        <v>134.8783390291532</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>92.14103947104601</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.93999404465288</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I20" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221332</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221457</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221332</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I23" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221451</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221247</v>
       </c>
       <c r="C26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I26" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="J28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="K28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="L28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="N28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="O28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="P28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="R28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="S28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I29" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C32" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D32" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E32" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F32" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G32" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H32" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I32" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T32" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U32" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V32" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W32" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X32" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221355</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C34" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D34" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E34" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F34" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G34" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H34" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I34" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J34" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K34" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L34" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M34" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N34" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O34" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P34" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R34" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S34" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T34" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U34" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V34" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W34" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X34" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221338</v>
       </c>
       <c r="C35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I35" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221558</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I38" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221287</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221264</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="41">
@@ -30475,10 +30475,10 @@
         <v>31.61020235221391</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221247</v>
       </c>
       <c r="I41" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>31.61020235221391</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221355</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="42">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605491</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.018896544935205</v>
+        <v>2.018896544935182</v>
       </c>
       <c r="H8" t="n">
-        <v>20.67602424081768</v>
+        <v>20.67602424081744</v>
       </c>
       <c r="I8" t="n">
-        <v>77.83350904861457</v>
+        <v>77.83350904861369</v>
       </c>
       <c r="J8" t="n">
-        <v>171.3513206306945</v>
+        <v>171.3513206306926</v>
       </c>
       <c r="K8" t="n">
-        <v>256.8112113778018</v>
+        <v>256.8112113777989</v>
       </c>
       <c r="L8" t="n">
-        <v>318.5970165148627</v>
+        <v>318.597016514859</v>
       </c>
       <c r="M8" t="n">
-        <v>354.5005679458541</v>
+        <v>354.50056794585</v>
       </c>
       <c r="N8" t="n">
-        <v>360.2367577541513</v>
+        <v>360.2367577541472</v>
       </c>
       <c r="O8" t="n">
-        <v>340.1613552354518</v>
+        <v>340.161355235448</v>
       </c>
       <c r="P8" t="n">
-        <v>290.3198467823639</v>
+        <v>290.3198467823606</v>
       </c>
       <c r="Q8" t="n">
-        <v>218.0181142668718</v>
+        <v>218.0181142668693</v>
       </c>
       <c r="R8" t="n">
-        <v>126.8195100907862</v>
+        <v>126.8195100907847</v>
       </c>
       <c r="S8" t="n">
-        <v>46.00560501771103</v>
+        <v>46.00560501771051</v>
       </c>
       <c r="T8" t="n">
-        <v>8.837719625453865</v>
+        <v>8.837719625453765</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1615117235948164</v>
+        <v>0.1615117235948145</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.080204882509436</v>
+        <v>1.080204882509424</v>
       </c>
       <c r="H9" t="n">
-        <v>10.43250504949903</v>
+        <v>10.43250504949891</v>
       </c>
       <c r="I9" t="n">
-        <v>37.19126459517139</v>
+        <v>37.19126459517096</v>
       </c>
       <c r="J9" t="n">
-        <v>102.0556726935779</v>
+        <v>102.0556726935768</v>
       </c>
       <c r="K9" t="n">
-        <v>174.4293998217102</v>
+        <v>174.4293998217082</v>
       </c>
       <c r="L9" t="n">
-        <v>234.5418539852178</v>
+        <v>234.5418539852151</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6992809761848</v>
+        <v>273.6992809761816</v>
       </c>
       <c r="N9" t="n">
-        <v>280.9432865259959</v>
+        <v>280.9432865259927</v>
       </c>
       <c r="O9" t="n">
-        <v>257.0082204451289</v>
+        <v>257.008220445126</v>
       </c>
       <c r="P9" t="n">
-        <v>206.2717551521748</v>
+        <v>206.2717551521724</v>
       </c>
       <c r="Q9" t="n">
-        <v>137.887205704187</v>
+        <v>137.8872057041854</v>
       </c>
       <c r="R9" t="n">
-        <v>67.0674575298403</v>
+        <v>67.06745752983953</v>
       </c>
       <c r="S9" t="n">
-        <v>20.06433191854149</v>
+        <v>20.06433191854126</v>
       </c>
       <c r="T9" t="n">
-        <v>4.353983715027068</v>
+        <v>4.353983715027018</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07106611069141032</v>
+        <v>0.0710661106914095</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9056074870621243</v>
+        <v>0.905607487062114</v>
       </c>
       <c r="H10" t="n">
-        <v>8.051673839515985</v>
+        <v>8.051673839515892</v>
       </c>
       <c r="I10" t="n">
-        <v>27.23408697455917</v>
+        <v>27.23408697455886</v>
       </c>
       <c r="J10" t="n">
-        <v>64.0264493352922</v>
+        <v>64.02644933529146</v>
       </c>
       <c r="K10" t="n">
-        <v>105.215124405945</v>
+        <v>105.2151244059438</v>
       </c>
       <c r="L10" t="n">
-        <v>134.6391349401271</v>
+        <v>134.6391349401256</v>
       </c>
       <c r="M10" t="n">
-        <v>141.9580899946564</v>
+        <v>141.9580899946548</v>
       </c>
       <c r="N10" t="n">
-        <v>138.5826439065159</v>
+        <v>138.5826439065143</v>
       </c>
       <c r="O10" t="n">
-        <v>128.0035018985629</v>
+        <v>128.0035018985614</v>
       </c>
       <c r="P10" t="n">
-        <v>109.5291091624954</v>
+        <v>109.5291091624942</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.83227784844753</v>
+        <v>75.83227784844667</v>
       </c>
       <c r="R10" t="n">
-        <v>40.71940573644788</v>
+        <v>40.71940573644741</v>
       </c>
       <c r="S10" t="n">
-        <v>15.78226866089175</v>
+        <v>15.78226866089156</v>
       </c>
       <c r="T10" t="n">
-        <v>3.869413808356349</v>
+        <v>3.869413808356304</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04939677202157048</v>
+        <v>0.04939677202156992</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31753,46 +31753,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H11" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I11" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J11" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K11" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L11" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M11" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N11" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O11" t="n">
-        <v>865.7509905565679</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P11" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q11" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R11" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S11" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T11" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31832,10 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H12" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I12" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
@@ -31844,22 +31844,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>357.5145194463132</v>
+        <v>357.5145194463128</v>
       </c>
       <c r="M12" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N12" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O12" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578285</v>
       </c>
       <c r="P12" t="n">
-        <v>524.9860796892351</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q12" t="n">
-        <v>350.9392912691327</v>
+        <v>350.9392912691328</v>
       </c>
       <c r="R12" t="n">
         <v>170.6946332877214</v>
@@ -31914,7 +31914,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I13" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J13" t="n">
         <v>162.9549067838147</v>
@@ -31923,13 +31923,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L13" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M13" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N13" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O13" t="n">
         <v>325.7840929246177</v>
@@ -31944,10 +31944,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S13" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T13" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U13" t="n">
         <v>0.1257206430118155</v>
@@ -32227,46 +32227,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H17" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I17" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L17" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N17" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O17" t="n">
-        <v>865.7509905565679</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R17" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S17" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T17" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,10 +32306,10 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H18" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
@@ -32318,22 +32318,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>357.5145194463132</v>
+        <v>357.5145194463128</v>
       </c>
       <c r="M18" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N18" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578285</v>
       </c>
       <c r="P18" t="n">
-        <v>524.9860796892351</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q18" t="n">
-        <v>350.9392912691327</v>
+        <v>350.9392912691328</v>
       </c>
       <c r="R18" t="n">
         <v>170.6946332877214</v>
@@ -32388,7 +32388,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I19" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J19" t="n">
         <v>162.9549067838147</v>
@@ -32397,13 +32397,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L19" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M19" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N19" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O19" t="n">
         <v>325.7840929246177</v>
@@ -32418,10 +32418,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S19" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U19" t="n">
         <v>0.1257206430118155</v>
@@ -32464,46 +32464,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H20" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I20" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J20" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K20" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L20" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M20" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N20" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O20" t="n">
-        <v>865.7509905565679</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P20" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q20" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R20" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S20" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T20" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,10 +32543,10 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H21" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I21" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
@@ -32555,22 +32555,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>357.5145194463132</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M21" t="n">
-        <v>696.597129487967</v>
+        <v>457.1748150187213</v>
       </c>
       <c r="N21" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O21" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578285</v>
       </c>
       <c r="P21" t="n">
-        <v>524.9860796892351</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691327</v>
+        <v>350.9392912691328</v>
       </c>
       <c r="R21" t="n">
         <v>170.6946332877214</v>
@@ -32625,7 +32625,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I22" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J22" t="n">
         <v>162.9549067838147</v>
@@ -32634,13 +32634,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L22" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M22" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N22" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O22" t="n">
         <v>325.7840929246177</v>
@@ -32655,10 +32655,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S22" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T22" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U22" t="n">
         <v>0.1257206430118155</v>
@@ -32701,46 +32701,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H23" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I23" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J23" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K23" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L23" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M23" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N23" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O23" t="n">
-        <v>865.7509905565679</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P23" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q23" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R23" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S23" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T23" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,10 +32780,10 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H24" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I24" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
@@ -32792,22 +32792,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>596.9368339155585</v>
+        <v>357.5145194463128</v>
       </c>
       <c r="M24" t="n">
-        <v>457.1748150187216</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N24" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O24" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578285</v>
       </c>
       <c r="P24" t="n">
-        <v>524.9860796892351</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q24" t="n">
-        <v>350.9392912691327</v>
+        <v>350.9392912691328</v>
       </c>
       <c r="R24" t="n">
         <v>170.6946332877214</v>
@@ -32862,7 +32862,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I25" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J25" t="n">
         <v>162.9549067838147</v>
@@ -32871,13 +32871,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L25" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M25" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N25" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O25" t="n">
         <v>325.7840929246177</v>
@@ -32892,10 +32892,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S25" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T25" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U25" t="n">
         <v>0.1257206430118155</v>
@@ -32938,46 +32938,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H26" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I26" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J26" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K26" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L26" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M26" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N26" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O26" t="n">
-        <v>865.7509905565679</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P26" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q26" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R26" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S26" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T26" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,10 +33017,10 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H27" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I27" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33029,22 +33029,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>357.5145194463132</v>
+        <v>357.5145194463128</v>
       </c>
       <c r="M27" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N27" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O27" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578285</v>
       </c>
       <c r="P27" t="n">
-        <v>524.9860796892351</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q27" t="n">
-        <v>350.9392912691327</v>
+        <v>350.9392912691328</v>
       </c>
       <c r="R27" t="n">
         <v>170.6946332877214</v>
@@ -33099,7 +33099,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I28" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J28" t="n">
         <v>162.9549067838147</v>
@@ -33108,13 +33108,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L28" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M28" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N28" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O28" t="n">
         <v>325.7840929246177</v>
@@ -33129,10 +33129,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S28" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T28" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U28" t="n">
         <v>0.1257206430118155</v>
@@ -33175,46 +33175,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H29" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I29" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J29" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K29" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L29" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M29" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N29" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O29" t="n">
-        <v>865.7509905565679</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P29" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q29" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R29" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S29" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T29" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,10 +33254,10 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H30" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I30" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -33266,22 +33266,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>357.5145194463132</v>
+        <v>357.5145194463128</v>
       </c>
       <c r="M30" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N30" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O30" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578285</v>
       </c>
       <c r="P30" t="n">
-        <v>524.9860796892351</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691327</v>
+        <v>350.9392912691328</v>
       </c>
       <c r="R30" t="n">
         <v>170.6946332877214</v>
@@ -33336,7 +33336,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I31" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J31" t="n">
         <v>162.9549067838147</v>
@@ -33345,13 +33345,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L31" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M31" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N31" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O31" t="n">
         <v>325.7840929246177</v>
@@ -33366,10 +33366,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S31" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T31" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U31" t="n">
         <v>0.1257206430118155</v>
@@ -33412,46 +33412,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H32" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I32" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J32" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K32" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L32" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M32" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N32" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O32" t="n">
-        <v>865.7509905565679</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P32" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q32" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R32" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S32" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T32" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,34 +33491,34 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H33" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I33" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>356.8015786407976</v>
       </c>
       <c r="L33" t="n">
-        <v>596.9368339155585</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>457.1748150187217</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N33" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O33" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578285</v>
       </c>
       <c r="P33" t="n">
-        <v>524.9860796892351</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q33" t="n">
-        <v>350.9392912691327</v>
+        <v>350.9392912691328</v>
       </c>
       <c r="R33" t="n">
         <v>170.6946332877214</v>
@@ -33573,7 +33573,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I34" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J34" t="n">
         <v>162.9549067838147</v>
@@ -33582,13 +33582,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L34" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M34" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N34" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O34" t="n">
         <v>325.7840929246177</v>
@@ -33603,10 +33603,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S34" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T34" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U34" t="n">
         <v>0.1257206430118155</v>
@@ -33649,46 +33649,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H35" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I35" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J35" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K35" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L35" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M35" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N35" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O35" t="n">
-        <v>865.7509905565679</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P35" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q35" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R35" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S35" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T35" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,10 +33728,10 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H36" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I36" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,22 +33740,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>357.5145194463132</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M36" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N36" t="n">
-        <v>715.033982716063</v>
+        <v>475.6116682468174</v>
       </c>
       <c r="O36" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578285</v>
       </c>
       <c r="P36" t="n">
-        <v>524.9860796892351</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q36" t="n">
-        <v>350.9392912691327</v>
+        <v>350.9392912691328</v>
       </c>
       <c r="R36" t="n">
         <v>170.6946332877214</v>
@@ -33810,7 +33810,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I37" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J37" t="n">
         <v>162.9549067838147</v>
@@ -33819,13 +33819,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L37" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M37" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N37" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O37" t="n">
         <v>325.7840929246177</v>
@@ -33840,10 +33840,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S37" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T37" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U37" t="n">
         <v>0.1257206430118155</v>
@@ -33886,46 +33886,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H38" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I38" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J38" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K38" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L38" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M38" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N38" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O38" t="n">
-        <v>865.7509905565679</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P38" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q38" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R38" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S38" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T38" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,10 +33965,10 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H39" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I39" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33977,22 +33977,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>357.5145194463132</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M39" t="n">
-        <v>696.597129487967</v>
+        <v>457.1748150187213</v>
       </c>
       <c r="N39" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578285</v>
       </c>
       <c r="P39" t="n">
-        <v>524.9860796892351</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q39" t="n">
-        <v>350.9392912691327</v>
+        <v>350.9392912691328</v>
       </c>
       <c r="R39" t="n">
         <v>170.6946332877214</v>
@@ -34047,7 +34047,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I40" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J40" t="n">
         <v>162.9549067838147</v>
@@ -34056,13 +34056,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L40" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M40" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N40" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O40" t="n">
         <v>325.7840929246177</v>
@@ -34077,10 +34077,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S40" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T40" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U40" t="n">
         <v>0.1257206430118155</v>
@@ -34123,46 +34123,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H41" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I41" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J41" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K41" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L41" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M41" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N41" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O41" t="n">
-        <v>865.7509905565679</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P41" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q41" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R41" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S41" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T41" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,34 +34202,34 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H42" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I42" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>356.801578640798</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M42" t="n">
-        <v>696.597129487967</v>
+        <v>151.0727449683532</v>
       </c>
       <c r="N42" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578285</v>
       </c>
       <c r="P42" t="n">
-        <v>524.9860796892351</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.9392912691327</v>
+        <v>350.9392912691328</v>
       </c>
       <c r="R42" t="n">
         <v>170.6946332877214</v>
@@ -34284,7 +34284,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I43" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J43" t="n">
         <v>162.9549067838147</v>
@@ -34293,13 +34293,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L43" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M43" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N43" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O43" t="n">
         <v>325.7840929246177</v>
@@ -34314,10 +34314,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S43" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T43" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U43" t="n">
         <v>0.1257206430118155</v>
@@ -34375,7 +34375,7 @@
         <v>810.8671910869754</v>
       </c>
       <c r="M44" t="n">
-        <v>902.2459874654299</v>
+        <v>902.2459874654288</v>
       </c>
       <c r="N44" t="n">
         <v>916.8452708117594</v>
@@ -34448,10 +34448,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>356.8015786407976</v>
       </c>
       <c r="L45" t="n">
-        <v>357.5145194463128</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>696.5971294879671</v>
@@ -35173,25 +35173,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>36.72136033282129</v>
+        <v>36.72136033281834</v>
       </c>
       <c r="L8" t="n">
-        <v>82.83060154487544</v>
+        <v>82.8306015448718</v>
       </c>
       <c r="M8" t="n">
-        <v>124.1543347185814</v>
+        <v>124.1543347185773</v>
       </c>
       <c r="N8" t="n">
-        <v>130.8236941575604</v>
+        <v>130.8236941575562</v>
       </c>
       <c r="O8" t="n">
-        <v>110.0631438137651</v>
+        <v>110.0631438137612</v>
       </c>
       <c r="P8" t="n">
-        <v>59.08685102709438</v>
+        <v>59.08685102709103</v>
       </c>
       <c r="Q8" t="n">
-        <v>56.77159469335486</v>
+        <v>56.77159469336048</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>36.58796084735118</v>
+        <v>36.58796084734919</v>
       </c>
       <c r="L9" t="n">
-        <v>95.9874742053436</v>
+        <v>95.9874742053409</v>
       </c>
       <c r="M9" t="n">
-        <v>131.5652470541664</v>
+        <v>131.5652470541633</v>
       </c>
       <c r="N9" t="n">
-        <v>149.6015744426626</v>
+        <v>149.6015744426594</v>
       </c>
       <c r="O9" t="n">
-        <v>114.4119760006845</v>
+        <v>114.4119760006815</v>
       </c>
       <c r="P9" t="n">
-        <v>72.29734773784452</v>
+        <v>72.29734773784216</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35334,19 +35334,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>38.70993393833817</v>
+        <v>38.70993393833552</v>
       </c>
       <c r="M10" t="n">
-        <v>151.6446593074419</v>
+        <v>151.6446593074378</v>
       </c>
       <c r="N10" t="n">
-        <v>151.6446593074419</v>
+        <v>151.6446593074378</v>
       </c>
       <c r="O10" t="n">
-        <v>151.6446593074419</v>
+        <v>151.6446593074378</v>
       </c>
       <c r="P10" t="n">
-        <v>106.8076684273889</v>
+        <v>106.8076684273877</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K11" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L11" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M11" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N11" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O11" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P11" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q11" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R11" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>218.960139666439</v>
+        <v>218.9601396664386</v>
       </c>
       <c r="M12" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N12" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O12" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133841</v>
       </c>
       <c r="P12" t="n">
-        <v>391.0116722749049</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q12" t="n">
         <v>210.9575171831112</v>
       </c>
       <c r="R12" t="n">
-        <v>25.01512932375746</v>
+        <v>25.01512932375749</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>69.59572666714189</v>
+        <v>69.59572666714192</v>
       </c>
       <c r="K13" t="n">
         <v>245.5154777892838</v>
       </c>
       <c r="L13" t="n">
-        <v>370.2625912295209</v>
+        <v>370.262591229521</v>
       </c>
       <c r="M13" t="n">
-        <v>400.8840515372959</v>
+        <v>400.884051537296</v>
       </c>
       <c r="N13" t="n">
         <v>396.8414363488769</v>
       </c>
       <c r="O13" t="n">
-        <v>350.3692208386573</v>
+        <v>350.3692208386574</v>
       </c>
       <c r="P13" t="n">
         <v>276.043131703092</v>
@@ -35668,7 +35668,7 @@
         <v>332.5762668227518</v>
       </c>
       <c r="R14" t="n">
-        <v>107.185155544024</v>
+        <v>107.1851555440238</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K17" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L17" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N17" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348816</v>
       </c>
       <c r="P17" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R17" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>218.960139666439</v>
+        <v>218.9601396664386</v>
       </c>
       <c r="M18" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N18" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O18" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133841</v>
       </c>
       <c r="P18" t="n">
-        <v>391.0116722749049</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q18" t="n">
         <v>210.9575171831112</v>
       </c>
       <c r="R18" t="n">
-        <v>25.01512932375746</v>
+        <v>25.01512932375749</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36042,19 +36042,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L19" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M19" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N19" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O19" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P19" t="n">
         <v>307.6533340553059</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K20" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L20" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M20" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N20" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O20" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P20" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276929</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R20" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>218.960139666439</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M21" t="n">
-        <v>554.4630955659486</v>
+        <v>315.040781096703</v>
       </c>
       <c r="N21" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O21" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133841</v>
       </c>
       <c r="P21" t="n">
-        <v>391.0116722749049</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q21" t="n">
         <v>210.9575171831112</v>
       </c>
       <c r="R21" t="n">
-        <v>25.01512932375746</v>
+        <v>25.01512932375749</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K22" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L22" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M22" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N22" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O22" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P22" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553066</v>
       </c>
       <c r="Q22" t="n">
         <v>138.4502995641581</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K23" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L23" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M23" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N23" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O23" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P23" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q23" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R23" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>458.3824541356843</v>
+        <v>218.9601396664386</v>
       </c>
       <c r="M24" t="n">
-        <v>315.0407810967033</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N24" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O24" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133841</v>
       </c>
       <c r="P24" t="n">
-        <v>391.0116722749049</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q24" t="n">
         <v>210.9575171831112</v>
       </c>
       <c r="R24" t="n">
-        <v>25.01512932375746</v>
+        <v>25.01512932375749</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36516,19 +36516,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L25" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817356</v>
       </c>
       <c r="M25" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N25" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O25" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P25" t="n">
         <v>307.6533340553059</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K26" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L26" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M26" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N26" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O26" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P26" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q26" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R26" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>218.960139666439</v>
+        <v>218.9601396664386</v>
       </c>
       <c r="M27" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N27" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O27" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133841</v>
       </c>
       <c r="P27" t="n">
-        <v>391.0116722749049</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q27" t="n">
         <v>210.9575171831112</v>
       </c>
       <c r="R27" t="n">
-        <v>25.01512932375746</v>
+        <v>25.01512932375749</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,19 +36753,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L28" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M28" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N28" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O28" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P28" t="n">
         <v>307.6533340553059</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K29" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L29" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M29" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N29" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O29" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P29" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q29" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R29" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>218.960139666439</v>
+        <v>218.9601396664386</v>
       </c>
       <c r="M30" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N30" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O30" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133841</v>
       </c>
       <c r="P30" t="n">
-        <v>391.0116722749049</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q30" t="n">
         <v>210.9575171831112</v>
       </c>
       <c r="R30" t="n">
-        <v>25.01512932375746</v>
+        <v>25.01512932375749</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K32" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L32" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M32" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N32" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O32" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P32" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q32" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R32" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>218.9601396664386</v>
       </c>
       <c r="L33" t="n">
-        <v>458.3824541356843</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>315.0407810967034</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N33" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O33" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133841</v>
       </c>
       <c r="P33" t="n">
-        <v>391.0116722749049</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q33" t="n">
         <v>210.9575171831112</v>
       </c>
       <c r="R33" t="n">
-        <v>25.01512932375746</v>
+        <v>25.01512932375749</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37230,16 +37230,16 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L34" t="n">
-        <v>401.8727935817349</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M34" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N34" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O34" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P34" t="n">
         <v>307.6533340553059</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K35" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L35" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M35" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N35" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O35" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P35" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q35" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R35" t="n">
-        <v>107.1851555440247</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>218.960139666439</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M36" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N36" t="n">
-        <v>583.6922706327297</v>
+        <v>344.2699561634842</v>
       </c>
       <c r="O36" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133841</v>
       </c>
       <c r="P36" t="n">
-        <v>391.0116722749049</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q36" t="n">
         <v>210.9575171831112</v>
       </c>
       <c r="R36" t="n">
-        <v>25.01512932375746</v>
+        <v>25.01512932375749</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>101.2059290193575</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K37" t="n">
         <v>277.1256801414978</v>
@@ -37470,13 +37470,13 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M37" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N37" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O37" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P37" t="n">
         <v>307.6533340553059</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K38" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L38" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M38" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N38" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O38" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P38" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q38" t="n">
-        <v>332.5762668227526</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R38" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>218.960139666439</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M39" t="n">
-        <v>554.4630955659486</v>
+        <v>315.040781096703</v>
       </c>
       <c r="N39" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O39" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133841</v>
       </c>
       <c r="P39" t="n">
-        <v>391.0116722749049</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q39" t="n">
         <v>210.9575171831112</v>
       </c>
       <c r="R39" t="n">
-        <v>25.01512932375746</v>
+        <v>25.01512932375749</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L40" t="n">
-        <v>401.8727935817338</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M40" t="n">
         <v>432.4942538895099</v>
@@ -37713,13 +37713,13 @@
         <v>428.4516387010908</v>
       </c>
       <c r="O40" t="n">
-        <v>381.9794231908713</v>
+        <v>381.97942319087</v>
       </c>
       <c r="P40" t="n">
         <v>307.6533340553059</v>
       </c>
       <c r="Q40" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K41" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L41" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M41" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N41" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O41" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P41" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q41" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R41" t="n">
-        <v>107.1851555440247</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>218.960139666439</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M42" t="n">
-        <v>554.4630955659486</v>
+        <v>8.938711046334902</v>
       </c>
       <c r="N42" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O42" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133841</v>
       </c>
       <c r="P42" t="n">
-        <v>391.0116722749049</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q42" t="n">
         <v>210.9575171831112</v>
       </c>
       <c r="R42" t="n">
-        <v>25.01512932375746</v>
+        <v>25.01512932375749</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37941,16 +37941,16 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L43" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M43" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N43" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O43" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P43" t="n">
         <v>307.6533340553059</v>
@@ -38023,7 +38023,7 @@
         <v>575.1007761169881</v>
       </c>
       <c r="M44" t="n">
-        <v>671.8997542381572</v>
+        <v>671.8997542381561</v>
       </c>
       <c r="N44" t="n">
         <v>687.4322072151685</v>
@@ -38035,7 +38035,7 @@
         <v>507.6654448276933</v>
       </c>
       <c r="Q44" t="n">
-        <v>332.5762668227512</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R44" t="n">
         <v>107.185155544024</v>
@@ -38096,10 +38096,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>218.9601396664386</v>
       </c>
       <c r="L45" t="n">
-        <v>218.9601396664386</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>554.4630955659488</v>
@@ -38178,7 +38178,7 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L46" t="n">
-        <v>401.8727935817349</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M46" t="n">
         <v>432.4942538895099</v>
